--- a/thématique SI/006 Culture architecte SI/conception/storyboard 006.xlsx
+++ b/thématique SI/006 Culture architecte SI/conception/storyboard 006.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stage\projet-FENS\thématique SI\006 Culture architecte SI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stage\projet-FENS\thématique SI\006 Culture architecte SI\conception\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3915B7B8-F983-40DB-A947-DAE58B4AFDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F5D8C7-5AC2-4279-BCB5-33EB48D782F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-15120" windowWidth="19440" windowHeight="15600" xr2:uid="{A4F29CA4-E8D0-5846-A34B-CC524442BAF9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Intéractions</t>
   </si>
@@ -83,6 +83,12 @@
 Le système métier est formé des services et processus de l'entreprise, des organisations qui les mettent en œuvre et des objets métier associés.
 Un objet métier est un concept ou une abstraction ayant un sens pour des acteurs (partie prenante interne) d'une organisation (par exemple une entreprise). L'objet métier permet de décrire les entités manipulées par les acteurs dans le cadre de la description du métier.
 Enfin il est courant d'y ajouter la vue stratégie. Il s'agit de la stratégie décidée par la D.S.I. pour le S.I. en alignement avec la stratégie de l'organisation.</t>
+  </si>
+  <si>
+    <t>c010</t>
+  </si>
+  <si>
+    <t>c020</t>
   </si>
 </sst>
 </file>
@@ -141,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -165,6 +171,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,13 +195,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>151081</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>4210327</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>2306620</xdr:rowOff>
@@ -230,16 +239,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>197095</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>41412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4262963</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4259153</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2557153</xdr:rowOff>
+      <xdr:rowOff>2560963</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -274,7 +283,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>719371</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>213147</xdr:rowOff>
@@ -611,80 +620,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2AF475-8297-9B48-A5BF-C8EFBB80C1A0}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.796875" customWidth="1"/>
-    <col min="2" max="2" width="16.796875" customWidth="1"/>
-    <col min="3" max="3" width="58.19921875" customWidth="1"/>
-    <col min="4" max="4" width="53.296875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="26.69921875" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" style="9"/>
+    <col min="2" max="2" width="17.796875" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" customWidth="1"/>
+    <col min="4" max="4" width="58.19921875" customWidth="1"/>
+    <col min="5" max="5" width="53.296875" style="5" customWidth="1"/>
+    <col min="6" max="7" width="26.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="154.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6" ht="154.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="253.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:6" ht="264.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="235.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="7" t="s">
+    <row r="9" spans="1:6" ht="235.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
     </row>

--- a/thématique SI/006 Culture architecte SI/conception/storyboard 006.xlsx
+++ b/thématique SI/006 Culture architecte SI/conception/storyboard 006.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stage\projet-FENS\thématique SI\006 Culture architecte SI\conception\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F5D8C7-5AC2-4279-BCB5-33EB48D782F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E212F1D-1F7F-44EA-9A03-7C0DECD5171B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-15120" windowWidth="19440" windowHeight="15600" xr2:uid="{A4F29CA4-E8D0-5846-A34B-CC524442BAF9}"/>
   </bookViews>
